--- a/Madisonsite/src/test/resources/Madison.xlsx
+++ b/Madisonsite/src/test/resources/Madison.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15630" windowHeight="6330" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15630" windowHeight="6330"/>
   </bookViews>
   <sheets>
     <sheet name="Registration" sheetId="1" r:id="rId1"/>
     <sheet name="login" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:M19"/>
+  <oleSize ref="A1:I19"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="15">
   <si>
     <t>firstname</t>
   </si>
@@ -36,33 +36,9 @@
     <t>confirmpassword</t>
   </si>
   <si>
-    <t>sai</t>
-  </si>
-  <si>
-    <t>srikar</t>
-  </si>
-  <si>
-    <t>indraganti</t>
-  </si>
-  <si>
-    <t>srikar97</t>
-  </si>
-  <si>
     <t>test09@gmail.com</t>
   </si>
   <si>
-    <t>srikar09@gmail.com</t>
-  </si>
-  <si>
-    <t>raghavendra</t>
-  </si>
-  <si>
-    <t>Indraganti</t>
-  </si>
-  <si>
-    <t>srikar021@gamil.com</t>
-  </si>
-  <si>
     <t>pavan989</t>
   </si>
   <si>
@@ -70,6 +46,21 @@
   </si>
   <si>
     <t>pavan.mahesh1234@gmail.com</t>
+  </si>
+  <si>
+    <t>macherla</t>
+  </si>
+  <si>
+    <t>pavan</t>
+  </si>
+  <si>
+    <t>mahesh</t>
+  </si>
+  <si>
+    <t>pavan.m12@gmail.com</t>
+  </si>
+  <si>
+    <t>pavan.m13@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -426,8 +417,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -462,42 +453,42 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
         <v>12</v>
       </c>
       <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
       <c r="F2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -513,7 +504,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -533,18 +524,18 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Madisonsite/src/test/resources/Madison.xlsx
+++ b/Madisonsite/src/test/resources/Madison.xlsx
@@ -4,14 +4,14 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15630" windowHeight="6330"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15630" windowHeight="6330" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Registration" sheetId="1" r:id="rId1"/>
     <sheet name="login" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:I19"/>
+  <oleSize ref="A1:K19"/>
 </workbook>
 </file>
 
@@ -45,9 +45,6 @@
     <t>test123</t>
   </si>
   <si>
-    <t>pavan.mahesh1234@gmail.com</t>
-  </si>
-  <si>
     <t>macherla</t>
   </si>
   <si>
@@ -61,6 +58,9 @@
   </si>
   <si>
     <t>pavan.m13@gmail.com</t>
+  </si>
+  <si>
+    <t>pavan.mahesh123456@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -417,7 +417,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
@@ -453,16 +453,16 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
         <v>10</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="C2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>13</v>
       </c>
       <c r="E2" t="s">
         <v>7</v>
@@ -473,16 +473,16 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
         <v>10</v>
       </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E3" t="s">
         <v>7</v>
@@ -504,7 +504,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -532,7 +532,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>

--- a/Madisonsite/src/test/resources/Madison.xlsx
+++ b/Madisonsite/src/test/resources/Madison.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15630" windowHeight="6330" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15630" windowHeight="6330"/>
   </bookViews>
   <sheets>
     <sheet name="Registration" sheetId="1" r:id="rId1"/>
     <sheet name="login" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:K19"/>
+  <oleSize ref="A1:G19"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="19">
   <si>
     <t>firstname</t>
   </si>
@@ -61,13 +61,25 @@
   </si>
   <si>
     <t>pavan.mahesh123456@gmail.com</t>
+  </si>
+  <si>
+    <t>assert</t>
+  </si>
+  <si>
+    <t>MY DASHBOARD</t>
+  </si>
+  <si>
+    <t>welcome</t>
+  </si>
+  <si>
+    <t>YOUR ORDER HAS BEEN RECEIVED.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -79,6 +91,19 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFD5D5D5"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFD5D5D5"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -107,9 +132,11 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -415,10 +442,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -429,9 +456,12 @@
     <col min="4" max="4" width="21.28515625" customWidth="1"/>
     <col min="5" max="5" width="17.7109375" customWidth="1"/>
     <col min="6" max="6" width="18.5703125" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" customWidth="1"/>
+    <col min="8" max="8" width="16.42578125" customWidth="1"/>
+    <col min="9" max="9" width="17.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -450,8 +480,14 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -470,8 +506,14 @@
       <c r="F2" t="s">
         <v>7</v>
       </c>
+      <c r="G2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -489,6 +531,12 @@
       </c>
       <c r="F3" t="s">
         <v>7</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -497,45 +545,56 @@
     <hyperlink ref="D3" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="18.140625" customWidth="1"/>
+    <col min="3" max="3" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>3</v>
       </c>
       <c r="B1" t="s">
         <v>4</v>
       </c>
+      <c r="C1" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
       </c>
+      <c r="C2" s="2" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/Madisonsite/src/test/resources/Madison.xlsx
+++ b/Madisonsite/src/test/resources/Madison.xlsx
@@ -4,14 +4,14 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15630" windowHeight="6330"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15630" windowHeight="6330" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Registration" sheetId="1" r:id="rId1"/>
     <sheet name="login" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:G19"/>
+  <oleSize ref="A1:H19"/>
 </workbook>
 </file>
 
@@ -444,8 +444,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H1" sqref="H1:H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -483,9 +483,6 @@
       <c r="G1" t="s">
         <v>15</v>
       </c>
-      <c r="H1" t="s">
-        <v>17</v>
-      </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -509,9 +506,6 @@
       <c r="G2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H2" t="s">
-        <v>18</v>
-      </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -534,9 +528,6 @@
       </c>
       <c r="G3" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="H3" t="s">
-        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -551,10 +542,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -562,9 +553,10 @@
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="18.140625" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
+    <col min="4" max="4" width="34.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -574,8 +566,11 @@
       <c r="C1" t="s">
         <v>15</v>
       </c>
+      <c r="D1" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -585,8 +580,11 @@
       <c r="C2" s="2" t="s">
         <v>16</v>
       </c>
+      <c r="D2" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>14</v>
       </c>
@@ -595,6 +593,9 @@
       </c>
       <c r="C3" s="2" t="s">
         <v>16</v>
+      </c>
+      <c r="D3" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/Madisonsite/src/test/resources/Madison.xlsx
+++ b/Madisonsite/src/test/resources/Madison.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15630" windowHeight="6330" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15630" windowHeight="6330"/>
   </bookViews>
   <sheets>
     <sheet name="Registration" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="17">
   <si>
     <t>firstname</t>
   </si>
@@ -67,12 +67,6 @@
   </si>
   <si>
     <t>MY DASHBOARD</t>
-  </si>
-  <si>
-    <t>welcome</t>
-  </si>
-  <si>
-    <t>YOUR ORDER HAS BEEN RECEIVED.</t>
   </si>
 </sst>
 </file>
@@ -444,7 +438,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H1" sqref="H1:H3"/>
     </sheetView>
   </sheetViews>
@@ -544,8 +538,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -566,9 +560,6 @@
       <c r="C1" t="s">
         <v>15</v>
       </c>
-      <c r="D1" t="s">
-        <v>17</v>
-      </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -580,9 +571,6 @@
       <c r="C2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D2" t="s">
-        <v>18</v>
-      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -593,9 +581,6 @@
       </c>
       <c r="C3" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="D3" t="s">
-        <v>18</v>
       </c>
     </row>
   </sheetData>
